--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Sdc4</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,19 +534,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H2">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>36.8780198810074</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N2">
-        <v>36.8780198810074</v>
+        <v>0.467012</v>
       </c>
       <c r="O2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q2">
-        <v>103.9012698428251</v>
+        <v>0.4393180846195556</v>
       </c>
       <c r="R2">
-        <v>103.9012698428251</v>
+        <v>3.953862761576</v>
       </c>
       <c r="S2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="T2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,19 +596,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H3">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.8618500951123</v>
+        <v>37.12743</v>
       </c>
       <c r="N3">
-        <v>16.8618500951123</v>
+        <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q3">
-        <v>47.50709616282332</v>
+        <v>104.77729545138</v>
       </c>
       <c r="R3">
-        <v>47.50709616282332</v>
+        <v>942.99565906242</v>
       </c>
       <c r="S3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="T3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H4">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.149612862403</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N4">
-        <v>17.149612862403</v>
+        <v>53.227738</v>
       </c>
       <c r="O4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q4">
-        <v>48.3178478526229</v>
+        <v>50.07132130821379</v>
       </c>
       <c r="R4">
-        <v>48.3178478526229</v>
+        <v>450.641891773924</v>
       </c>
       <c r="S4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="T4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H5">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.82967471352271</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N5">
-        <v>4.82967471352271</v>
+        <v>56.631023</v>
       </c>
       <c r="O5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q5">
-        <v>13.60727439493652</v>
+        <v>53.27279075142823</v>
       </c>
       <c r="R5">
-        <v>13.60727439493652</v>
+        <v>479.455116762854</v>
       </c>
       <c r="S5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="T5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H6">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +803,96 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.6750363319816</v>
+        <v>4.878365</v>
       </c>
       <c r="N6">
-        <v>23.6750363319816</v>
+        <v>14.635095</v>
       </c>
       <c r="O6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q6">
-        <v>66.70277705812418</v>
+        <v>13.76723061425667</v>
       </c>
       <c r="R6">
-        <v>66.70277705812418</v>
+        <v>123.90507552831</v>
       </c>
       <c r="S6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="T6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H7">
+        <v>8.466298</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.94642</v>
+      </c>
+      <c r="N7">
+        <v>71.83926</v>
+      </c>
+      <c r="O7">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="P7">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="Q7">
+        <v>67.57917591772001</v>
+      </c>
+      <c r="R7">
+        <v>608.21258325948</v>
+      </c>
+      <c r="S7">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="T7">
+        <v>0.2331062896651035</v>
       </c>
     </row>
   </sheetData>
